--- a/testdata/framedata.xlsx
+++ b/testdata/framedata.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofnottm-my.sharepoint.com/personal/mike_i_smith_nottingham_ac_uk/Documents/Documents/Work/Programming/particletracker/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofnottm-my.sharepoint.com/personal/mike_i_smith_nottingham_ac_uk/Documents/Documents/Programming/particletracker/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC10482E395852745ADE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3B5B95A1-9001-46E2-82E0-C2AC43E9CC42}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC10482E395852745ADE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BB577372-92B1-46DF-A33A-52478024877D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,6 +35,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,8 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,262 +350,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>49</v>
+      <c r="A1" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>48</v>
+      <c r="A2" s="1">
+        <f>20+0.1</f>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>47</v>
+        <f>A2+0.1</f>
+        <v>20.200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>46</v>
+        <f t="shared" ref="A4:A50" si="0">A3+0.1</f>
+        <v>20.300000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>20.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>20.500000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>20.600000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>20.70000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>20.800000000000011</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>20.900000000000013</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>21.000000000000014</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>21.100000000000016</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>21.200000000000017</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>21.300000000000018</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>21.40000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>21.500000000000021</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>21.600000000000023</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>21.700000000000024</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>21.800000000000026</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>21.900000000000027</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>22.000000000000028</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>22.10000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>22.200000000000031</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>22.300000000000033</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>22.400000000000034</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>22.500000000000036</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>22.600000000000037</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>22.700000000000038</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>22.80000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>22.900000000000041</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>23.000000000000043</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>23.100000000000044</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>23.200000000000045</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>23.300000000000047</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>23.400000000000048</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>23.50000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>23.600000000000051</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>23.700000000000053</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>23.800000000000054</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>23.900000000000055</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>24.000000000000057</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>24.100000000000058</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>24.20000000000006</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>24.300000000000061</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>24.400000000000063</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>24.500000000000064</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>24.600000000000065</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>24.700000000000067</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>24.800000000000068</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>24.90000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
